--- a/DateBase/orders/Dang Nguyen_2025-1-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-1-6.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,10 +772,177 @@
       <c r="A40" t="str">
         <v>8</v>
       </c>
+      <c r="C40" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>9</v>
+      </c>
+      <c r="C46" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F46" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>721_银扇干花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>267_多头美琴_mikoto spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L59"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -833,7 +1000,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04510404114121815515236386155306118155461875555551510542526550</v>
+        <v>0451040411412181551523638615530611815546187555555151054252655510103554020121210521927264</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-1-6.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-1-6.xlsx
@@ -1002,6 +1002,9 @@
       <c r="G2" t="str">
         <v>0451040411412181551523638615530611815546187555555151054252655510103554020121210521927264</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
